--- a/漢字（かんじ）/n.xlsx
+++ b/漢字（かんじ）/n.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6C4073-38F0-49F3-B733-32901BF06AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413F1D7B-AAE3-4579-8BA3-A7FCC9F75D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="2196" windowWidth="11652" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="な" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
   <si>
     <t>人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,12 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>年齢｜ねんれい
-年賀状｜ねんがじょう
-年功序列｜ねんこうじょれつ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>垣根｜かきね</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -467,6 +461,53 @@
 責任感｜せきにんかん
 任天堂｜にんてんどう
 放任｜ほうにん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天然｜てんねん
+天然水｜てんねんすい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然</t>
+  </si>
+  <si>
+    <t>偽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にせ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">偽物｜にせもの
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>偽人｜にせひと</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年齢｜ねんれい
+年間｜ねんかん
+年賀状｜ねんがじょう
+年功序列｜ねんこうじょれつ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +515,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,6 +558,14 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -538,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -552,6 +601,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -872,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>55</v>
@@ -892,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -960,7 +1012,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -1030,21 +1082,21 @@
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E15" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="G16" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.45">
@@ -1060,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F98CE1-D53C-4A88-84F1-5BDCB19B25C4}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1092,22 +1144,22 @@
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1118,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>47</v>
@@ -1140,6 +1192,15 @@
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
@@ -1149,7 +1210,7 @@
         <v>61</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -1157,10 +1218,10 @@
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
@@ -1171,29 +1232,29 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1204,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D08330-481C-494C-9C4A-42B9FEBE4C4A}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1256,7 +1317,7 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -1278,17 +1339,28 @@
         <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1338,10 +1410,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1349,10 +1421,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1363,7 +1435,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1382,7 +1454,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/n.xlsx
+++ b/漢字（かんじ）/n.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413F1D7B-AAE3-4579-8BA3-A7FCC9F75D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7014DB74-F955-4467-A1F6-DC99D2CB8161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="な" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
   <si>
     <t>人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,6 +508,22 @@
 年間｜ねんかん
 年賀状｜ねんがじょう
 年功序列｜ねんこうじょれつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暢気｜のんき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脳力｜のうりょく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1267,7 +1283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D08330-481C-494C-9C4A-42B9FEBE4C4A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -1372,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EDF5E4-852E-40FB-85A6-E1F4C3033544}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1445,6 +1461,9 @@
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
@@ -1455,6 +1474,17 @@
       </c>
       <c r="C7" s="3" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/n.xlsx
+++ b/漢字（かんじ）/n.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7014DB74-F955-4467-A1F6-DC99D2CB8161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E534E5-252A-4586-A844-DC29519144CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="な" sheetId="1" r:id="rId1"/>
@@ -256,15 +256,6 @@
   </si>
   <si>
     <t>なべ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鍋料理｜なべりょうり
-鍋鳥｜なべとり
-圧力鍋｜あつりょくなべ
-圧力計｜あつりょくけい
-圧力指数｜あつりょくしすう
-圧力係数｜あつりょくけいすう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -524,6 +515,12 @@
   </si>
   <si>
     <t>脳力｜のうりょく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍋料理｜なべりょうり
+鍋鳥｜なべとり
+圧力鍋｜あつりょくなべ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -902,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -940,7 +937,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>55</v>
@@ -949,7 +946,7 @@
         <v>54</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -960,7 +957,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -974,13 +971,13 @@
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>18</v>
@@ -1028,7 +1025,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -1098,21 +1095,21 @@
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E15" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.45">
@@ -1129,7 +1126,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1160,22 +1157,22 @@
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1186,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>47</v>
@@ -1195,7 +1192,7 @@
         <v>48</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1209,13 +1206,13 @@
         <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1223,10 +1220,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -1234,10 +1231,10 @@
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
@@ -1248,29 +1245,29 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1311,7 +1308,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1333,7 +1330,7 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.45">
@@ -1344,7 +1341,7 @@
         <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1355,7 +1352,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1363,10 +1360,10 @@
         <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1390,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EDF5E4-852E-40FB-85A6-E1F4C3033544}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1426,10 +1423,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1437,10 +1434,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1451,7 +1448,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1462,7 +1459,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1473,18 +1470,18 @@
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/漢字（かんじ）/n.xlsx
+++ b/漢字（かんじ）/n.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E534E5-252A-4586-A844-DC29519144CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EE1FC9-121E-4423-92F9-DDE8DF8410A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="な" sheetId="1" r:id="rId1"/>
@@ -899,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1280,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D08330-481C-494C-9C4A-42B9FEBE4C4A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/漢字（かんじ）/n.xlsx
+++ b/漢字（かんじ）/n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EE1FC9-121E-4423-92F9-DDE8DF8410A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9708157-0B7B-4A4D-9834-E5B72CB42442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -305,13 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>記念｜きねん
-概念｜がいねん
-理念｜りねん
-残念｜ざんねん</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>垣根｜かきね</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -521,6 +514,14 @@
     <t>鍋料理｜なべりょうり
 鍋鳥｜なべとり
 圧力鍋｜あつりょくなべ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>記念｜きねん
+概念｜がいねん
+理念｜りねん
+残念｜ざんねん
+信念｜しんねん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -937,7 +938,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>55</v>
@@ -946,7 +947,7 @@
         <v>54</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.45">
@@ -957,7 +958,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
@@ -1025,7 +1026,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -1095,21 +1096,21 @@
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E15" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="G16" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.45">
@@ -1157,22 +1158,22 @@
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.45">
@@ -1183,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>47</v>
@@ -1206,13 +1207,13 @@
         <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.45">
@@ -1223,7 +1224,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -1231,10 +1232,10 @@
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
@@ -1245,29 +1246,29 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1282,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1330,10 +1331,10 @@
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -1341,7 +1342,7 @@
         <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1352,7 +1353,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="55.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -1360,10 +1361,10 @@
         <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1423,10 +1424,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1434,10 +1435,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="54" x14ac:dyDescent="0.45">
@@ -1448,7 +1449,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1459,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1470,18 +1471,18 @@
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
